--- a/list_saws_hyundai.xlsx
+++ b/list_saws_hyundai.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -31,13 +31,64 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve"> HYUNDAI Х 5320</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Х 4118</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Х 5320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Х 3916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X 520</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X 420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X 370</t>
+  </si>
+  <si>
+    <t>11 280</t>
   </si>
   <si>
     <t>11 448</t>
   </si>
   <si>
+    <t>10 943</t>
+  </si>
+  <si>
+    <t>13 590</t>
+  </si>
+  <si>
+    <t>13 190</t>
+  </si>
+  <si>
+    <t>11 990</t>
+  </si>
+  <si>
+    <t>2.7 л.с.</t>
+  </si>
+  <si>
     <t>3.4 л.с.</t>
+  </si>
+  <si>
+    <t>2 л.с.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,13 +474,98 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/list_saws_hyundai.xlsx
+++ b/list_saws_hyundai.xlsx
@@ -58,12 +58,12 @@
     <t xml:space="preserve"> X 520</t>
   </si>
   <si>
+    <t xml:space="preserve"> X 370</t>
+  </si>
+  <si>
     <t xml:space="preserve"> X 420</t>
   </si>
   <si>
-    <t xml:space="preserve"> X 370</t>
-  </si>
-  <si>
     <t>11 280</t>
   </si>
   <si>
@@ -76,10 +76,10 @@
     <t>13 590</t>
   </si>
   <si>
+    <t>11 990</t>
+  </si>
+  <si>
     <t>13 190</t>
-  </si>
-  <si>
-    <t>11 990</t>
   </si>
   <si>
     <t>2.7 л.с.</t>
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
